--- a/Various/ThroughputMeasurement.xlsx
+++ b/Various/ThroughputMeasurement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Studies\Magisterka\Repository\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Studies\Magisterka\Repository\Various\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -315,11 +315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="292542320"/>
-        <c:axId val="290816672"/>
+        <c:axId val="169412736"/>
+        <c:axId val="169413296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="292542320"/>
+        <c:axId val="169412736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -377,12 +377,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290816672"/>
+        <c:crossAx val="169413296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290816672"/>
+        <c:axId val="169413296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -440,7 +440,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292542320"/>
+        <c:crossAx val="169412736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1346,7 +1346,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C26" sqref="B20:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
